--- a/data14.xlsx
+++ b/data14.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\ML_Project\sample_project_try\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Dataset\Unlabeled\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25C09FD-109E-4F42-9EF3-FF3F71A6433C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9B04307-C894-46E5-BB9E-ABE713594B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExportComments.com" sheetId="1" r:id="rId1"/>
@@ -33,262 +33,590 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="196">
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Kaosar Khan</t>
-  </si>
-  <si>
-    <t>পেনাল্টি উপহার দিছে..!ওইটা কোনোভাবে পেনাল্টি হয়না।</t>
-  </si>
-  <si>
-    <t>Rahul Singh</t>
-  </si>
-  <si>
-    <t>♦https://fb.watch/g-_ZJwau4W/দেখেনিন সেই উপহারের ভিডিও....♦</t>
-  </si>
-  <si>
-    <t>Md Hassan</t>
-  </si>
-  <si>
-    <t>গোবর একটি অদ্ভুদ জিনিস রে ভাই।পানিতে গেলে হয় মাছের খাদ্যচুলায় গেলে হয় জ্বালানি,জমিতে গেলে হয় জৈবসার,ইন্ডিয়া গেলে হয় প্রসাদ,আর,  মস্তিষ্কে গেলে হয়  আর্জেন্টিনার সাপোর্টার।</t>
-  </si>
-  <si>
-    <t>Nazmul Hosen Khan</t>
-  </si>
-  <si>
-    <t>❤️</t>
-  </si>
-  <si>
-    <t>Md Forhad</t>
-  </si>
-  <si>
-    <t>আমি সাইকেল চালিয়ে পর্তুগাল যাব রোনালদোর সাথে দেখা করার জন্য দোয়া করবেন আমার জেলা শেরপুর নকলা থানা আমার একটি সাক্ষাৎকার নিয়েন সিনেমাকেও হাড় মানাবে 19 বছরের কাহিনী আমার কাছে অনেক কিছু জানতে পারবেন যা আপনি অবাক হয়ে যাবেন বিশ্বকাপ নিবে আমার পর্তুগাল রোনালদোকে বাংলাদেশে নিয়ে আসব</t>
-  </si>
-  <si>
-    <t>Adnan Twoha</t>
-  </si>
-  <si>
-    <t>বাটপারি করে জিতছে।ডি বক্সের বাহিরে ছিল তাও পেলান্টি দিছে।এটা মুসলিম দেশ ঘানার সাথে খুব অন্যায় করেছে।চুরি করে জিতা</t>
-  </si>
-  <si>
-    <t>Abdullah Al Mamun</t>
-  </si>
-  <si>
-    <t>হুদাই একজন কিংবদন্তির পিছনে খোঁচা দিয়ে লোকে কি পাই সেটাই বুঝি যা করার যোগ্যতা আমাদের নেই আমরা সেটি করি🙂🙂</t>
-  </si>
-  <si>
-    <t>মি ল ন</t>
-  </si>
-  <si>
-    <t>উৎপল শুভ্র ফর ইউ...."Cry More " 😂😂😂</t>
-  </si>
-  <si>
-    <t>Joħiřuĺ Išĺẫḿ Pořuğ</t>
-  </si>
-  <si>
-    <t>সাংবাদিক নিশ্চয়ই আফা ভক্ত....!জ্বালা হায়রে জ্বালা..!</t>
-  </si>
-  <si>
-    <t>Samia Rahman</t>
-  </si>
-  <si>
-    <t>লুলান্দো  কামড়া কি করলো🤣🤣🤣https://www.facebook.com/104531205413681/posts/193593806507420/?app=fbl</t>
-  </si>
-  <si>
-    <t>Jubyar Rahaman</t>
-  </si>
-  <si>
-    <t>উপহার পাইতে যোগ্যতা লাগে</t>
-  </si>
-  <si>
-    <t>Rashed Hasnain</t>
-  </si>
-  <si>
-    <t>কথা ঠিক, কেন VAR ব্যবহার করা হলো না?মার্কিন রেফারির ষড়যন্ত্র</t>
+    <t>Hakim Ullah</t>
+  </si>
+  <si>
+    <t>ব্রাজিল সাপোর্ট করে এমন একটা পত্রিকা পাওয়া গেল !</t>
+  </si>
+  <si>
+    <t>Yahia Islam</t>
+  </si>
+  <si>
+    <t>Shafayat Khan Apurbo Akif Hossain Istiak Parvez PiasM. Nayeem HasanMd. Ziarul Alam Durjoy Amader name to kokhono emon ovijog asa na.</t>
+  </si>
+  <si>
+    <t>Tahidul Islam</t>
+  </si>
+  <si>
+    <t>PI A SH</t>
+  </si>
+  <si>
+    <t>Md Khorshed Alam</t>
+  </si>
+  <si>
+    <t>অতীত নিয়ে টান দিস না⚠️ বাজান⚠️ অতীত খুব ভয়ংকর🚯</t>
+  </si>
+  <si>
+    <t>Sironamhin Belal Sikder</t>
+  </si>
+  <si>
+    <t>78 e ki apnr jonmo hoicilo???</t>
+  </si>
+  <si>
+    <t>Imran Mirza Sohel</t>
+  </si>
+  <si>
+    <t>পাগল সাংঘাতিক</t>
+  </si>
+  <si>
+    <t>নীল</t>
+  </si>
+  <si>
+    <t>চোর-বাটপারদের কারণে</t>
+  </si>
+  <si>
+    <t>Mahedee Hasan</t>
+  </si>
+  <si>
+    <t>Rakibul Islam Riyad AR AF AT</t>
+  </si>
+  <si>
+    <t>S.A. Apurbo</t>
+  </si>
+  <si>
+    <t>Md. Hasib Imam</t>
+  </si>
+  <si>
+    <t>Mozammel Haque</t>
+  </si>
+  <si>
+    <t>সাংঘাতিক সাহেব অনেক পরিশ্রম করে মনের মাধুরি মিশিয়ে একখান রিপোর্ট করেছেন।৭৮ এ বয়স কত ছিলো ।</t>
+  </si>
+  <si>
+    <t>Provat Sarkar</t>
+  </si>
+  <si>
+    <t>ওরে আরজিতেনার কেরামতি রেেেেেে</t>
+  </si>
+  <si>
+    <t>Mahmud Turzo</t>
+  </si>
+  <si>
+    <t>Hossain Jahangir এগুলা কি শুনি। ছি ছি ছি মুখ দেখাও কিভাবে</t>
+  </si>
+  <si>
+    <t>Abu Talha</t>
+  </si>
+  <si>
+    <t>Ahsan Habib Zuel</t>
+  </si>
+  <si>
+    <t>Rashedur Rahaman Rashed</t>
+  </si>
+  <si>
+    <t>Sumera Afraah Nur Nupur</t>
+  </si>
+  <si>
+    <t>MH Akash</t>
+  </si>
+  <si>
+    <t>চোর</t>
+  </si>
+  <si>
+    <t>Jahurul Islam</t>
+  </si>
+  <si>
+    <t>Mehedi Nishad চোরের দল, চোরের সাপোর্টার 👀</t>
+  </si>
+  <si>
+    <t>Sheikh Aminul Islam</t>
+  </si>
+  <si>
+    <t>Sabbir Ahmed Piyas Jahangir Kabir Tarek Rahman Pasha Mehedi Hasan  আর্জেন্টিনা অতীতের বিশ্বকাপ গুলোতে বেশ কয়েকবার চুরি চামারি করেছে ।</t>
+  </si>
+  <si>
+    <t>Sabbir Ahmed</t>
+  </si>
+  <si>
+    <t>Zayed Shishir Raiyan Ahmed😵😵😵</t>
+  </si>
+  <si>
+    <t>আদিল আহনাফ শুভ্র</t>
+  </si>
+  <si>
+    <t>ডাহা মিছা কথা।</t>
+  </si>
+  <si>
+    <t>Nikkon Dey</t>
+  </si>
+  <si>
+    <t>এটাই পয়েন্ট। ৭৮ এর বিশ্বকাপ চিটিং না করলে এই জীবনে আর তাদের বিশ্বকাপ দেখা লাগতোনা 😅</t>
+  </si>
+  <si>
+    <t>MD Azmir Hossain</t>
+  </si>
+  <si>
+    <t>MD Maruf Khan Shihab Shahriar Atikur Rahaman Khan টিএস সজিব @</t>
+  </si>
+  <si>
+    <t>Mithun Islam Nirob</t>
+  </si>
+  <si>
+    <t>🇪🇸🇪🇸🇪🇸🇪🇸🇪🇸🇪🇸 Spain Football  Fan Groups  Bangladesh🇪🇸🇪🇸</t>
+  </si>
+  <si>
+    <t>Shihab Rumel</t>
+  </si>
+  <si>
+    <t>চুরিতে আর্জেন্টিনা সেরা</t>
+  </si>
+  <si>
+    <t>Abdul Quader</t>
+  </si>
+  <si>
+    <t>এবারো তাই করবে। ইতিমধ্যেই নেটে খবর বেরিয়েছে পোন</t>
+  </si>
+  <si>
+    <t>Quaium Talukder</t>
+  </si>
+  <si>
+    <t>ফুটবলের যতোগুলো কলঙ্কিত ঘটনা আছে,তার সাথে আর্জেন্টিনার সম্পৃক্ততা আছে।</t>
+  </si>
+  <si>
+    <t>Areyan Khan Jitu</t>
+  </si>
+  <si>
+    <t>salara ganja khaiya newos kors naki m c</t>
+  </si>
+  <si>
+    <t>ফারহানা ইয়াসমিন</t>
+  </si>
+  <si>
+    <t>বাপ বেটা দুইটাই চুরি বিদ্যা ভালো জানে</t>
+  </si>
+  <si>
+    <t>Sifat Mahmud</t>
+  </si>
+  <si>
+    <t>Abdullah Riaz দেখ,,,, 🤣🤣</t>
+  </si>
+  <si>
+    <t>Sadi Mohammad Rosshi</t>
+  </si>
+  <si>
+    <t>Esob onek vua jinis e third world er country gula ke sunte hoi coz first world cai na era valo kisu koruk. E to normal bisoi. 2014 world cup e noyar ken red card pelo na eta nie kintu eto kotha nai.</t>
+  </si>
+  <si>
+    <t>MD Shariful Islam Sharif</t>
+  </si>
+  <si>
+    <t>Rite</t>
+  </si>
+  <si>
+    <t>Osman Goni</t>
+  </si>
+  <si>
+    <t>বয়কট প্রথম আলো 😄</t>
+  </si>
+  <si>
+    <t>Asif Mahmud Ovi</t>
+  </si>
+  <si>
+    <t>Choreer dol  🇦🇷🇦🇷</t>
+  </si>
+  <si>
+    <t>Mohin Uddin</t>
+  </si>
+  <si>
+    <t>আর্জেন্টিনা তো দেখি  সব  জাগায়ইই চুরি বিদ্যা প্রয়োগ করে  আসছে সেই আদিকাল থেকেই</t>
+  </si>
+  <si>
+    <t>Bina Bina</t>
+  </si>
+  <si>
+    <t>চোরের মা বাবা ভাইবোন আত্নীয়স্বজন পাড়া প্রতিবেশী ভক্ত সবারই লম্বা গলা🤣🤣</t>
+  </si>
+  <si>
+    <t>Hemangshu Mondal</t>
+  </si>
+  <si>
+    <t>অনেক দূরের দেশের বহুদিন আগের খুব গুরুত্বপূর্ণ তত্ত্ব প্রথম আলোর সাংবাদিকরা বের করে আনে।কিন্তু নিজ দেশের সংখ্যালঘু নির্যাতনের মত বড় বড় ঘটনার কোন তত্ত্ব সাংবাদিক ভাইরা দিতে পারে না।নির্বাচনের  কোন সঠিক তত্ত্ব দিতে পারে না।</t>
+  </si>
+  <si>
+    <t>Hafiz Guljar Mahmud</t>
+  </si>
+  <si>
+    <t>আর্জেন্টিনা আঃ লীগ,  আগাগোড়া চোর!!!</t>
+  </si>
+  <si>
+    <t>Hk Emon</t>
+  </si>
+  <si>
+    <t>হালারা কামডা করছে কি</t>
+  </si>
+  <si>
+    <t>Chand Sharif</t>
+  </si>
+  <si>
+    <t>MD Tousif</t>
+  </si>
+  <si>
+    <t>AR Rahman</t>
+  </si>
+  <si>
+    <t>উনাদের শৈল্পিক সৌন্দর্যের অন্ধকারে শুধুই কলঙ্ক।</t>
+  </si>
+  <si>
+    <t>Pavel Ivan</t>
+  </si>
+  <si>
+    <t>এরকম অভিযোগ থাকতেই পারে কিন্তু এগুলোর কোন ভিত্তি নেই প্রমাণ নেই।</t>
+  </si>
+  <si>
+    <t>সাহিত্যপ্রেমীর খোঁজে</t>
+  </si>
+  <si>
+    <t>ক্রিকেটে কি এ রকম উদ্যোগ দেখা যাবে কখনো...?!</t>
+  </si>
+  <si>
+    <t>Mursalin Èbñè Sàñý</t>
+  </si>
+  <si>
+    <t>চুরি বিদ্যা 😂😂</t>
+  </si>
+  <si>
+    <t>Md Azizul Haque</t>
+  </si>
+  <si>
+    <t>Bacchu Ashiq তোর দলের ইতিহাস পড়ে দেখ।কেমন দল সাপোর্ট করিস চিন্তা করে দেখ বন্ধু।</t>
+  </si>
+  <si>
+    <t>Yeaqub Hossen</t>
+  </si>
+  <si>
+    <t>Umme Salma Tamanna, Hasan Hassan Mahmud Prince</t>
+  </si>
+  <si>
+    <t>Shaon Prodhan</t>
+  </si>
+  <si>
+    <t>তার মানে দুই কাপই চুরি আর দূর্নীতি করে নেওয়া🤣🤣</t>
+  </si>
+  <si>
+    <t>MD Merazul Islam</t>
+  </si>
+  <si>
+    <t>চোরের দল,,এদের রেকর্ডে যে দুটি কাপ আছে দুইটাই চুরি করা,,</t>
+  </si>
+  <si>
+    <t>Shimul SK</t>
+  </si>
+  <si>
+    <t>পিতা পুত্রের অংক কষতে বসেছিলাম হঠাৎ এই খবর দেখে অংক সহজ হলো
+[PHOTO] https://scontent.flyn1-1.fna.fbcdn.net/v/t39.1997-6/123000421_455760515400573_1517321621942389216_n.png?_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=ac3552&amp;_nc_ohc=A92xB24wrugAX-9UH6Y&amp;_nc_ht=scontent.flyn1-1.fna&amp;oh=00_AfCKGyUTaNNBSRu5C2IKyawcox4KgFeKtAOtTFE7LwXv0g&amp;oe=638A5C44</t>
+  </si>
+  <si>
+    <t>এবারো তাই করবে। নেটে খবর বেরিয়েছে পোলান্ডের হাতেপায়ে ধরে কাঁন্দা শুরু করেছে আর্জেন্টিনা, যেকরেই হোক পোলান্ড যেন খেলাটা ড্র করে। এইজন্য বিশ্বকাপে ৩২ দলের পরিবর্তে ১৬টা গ্রুপে ৬৪টা দল খেলা উচিত। তখন গ্রুপের চ্যাম্পিয়নরাই শুধু নকআউট পর্বে যাবে, রানারআপ নিয়ে কোনো ধান্ধাবাজি চলবে না।</t>
+  </si>
+  <si>
+    <t>Μδ ταπεκ ιϕβαΙ πεϜατ</t>
+  </si>
+  <si>
+    <t>AFA টিম যে চোরের দল এটা বিশ্ববাসী ভালো করেই  জানে ! চোরান্টিনা 🇦🇷🌚</t>
+  </si>
+  <si>
+    <t>আরিয়ান ইসলাম হাসনাত</t>
+  </si>
+  <si>
+    <t>শিবলি কাদের শিপন ভাইয়া সম্পূর্ণ পড়ে দেখুন...!</t>
+  </si>
+  <si>
+    <t>Robiul Islam</t>
+  </si>
+  <si>
+    <t>Atto boro batpariii</t>
+  </si>
+  <si>
+    <t>Abdul Motalleb</t>
+  </si>
+  <si>
+    <t>কবে কি হইছে না হইছে এইগুলা নিয়া না লাফাইলে হয় না,মাথা মোটা হাম্বাদিক</t>
   </si>
   <si>
     <t>Md Masud Sheik</t>
   </si>
   <si>
     <t>স্কলারশিপ সংক্রান্ত যেকোনো তথ্য জানতে, এই গ্রুপে জয়েন করুন ✍️https://www.facebook.com/groups/cshbd.cn/?ref=share_group_link
-[PHOTO] https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-6/218600914_2918069581776476_870324386865725681_n.jpg?stp=c185.0.403.403a_dst-jpg_p403x403&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=ac9ee4&amp;_nc_ohc=417hohK56K4AX9Su6Yx&amp;_nc_ht=scontent-atl3-1.xx&amp;oh=00_AfCRtxa_7Y9HW4ha3sRdvmeI-0xWQz5KOs4J-A9IXzCIOA&amp;oe=6385E2C6</t>
-  </si>
-  <si>
-    <t>Tuhinur Rahman</t>
-  </si>
-  <si>
-    <t>ব্রাজিল চাইলে হাফ টাইমের আগেই গোল দিতে পারতো।  কিন্তু দেয়নি কারণ আর্জেন্টিনা সাপোর্টাররা ঘুমিয়ে পড়বে বলে</t>
-  </si>
-  <si>
-    <t>SO Jib</t>
-  </si>
-  <si>
-    <t>প্রথম আলো রোনালদোর পায়ের সমান হবিনা আবার আসছস তার পিছনে লাগতে......আবাল সাংবাদিক দের টাকা ইনকাম কম হচ্ছে মনে হয় তাই রোনালদোর পিছনে পড়ছে.....</t>
-  </si>
-  <si>
-    <t>Rimon Hossain</t>
-  </si>
-  <si>
-    <t>Cry baby!!</t>
-  </si>
-  <si>
-    <t>Alauddin Sikder</t>
-  </si>
-  <si>
-    <t>Argentine fan detected Opinion rejected</t>
-  </si>
-  <si>
-    <t>Al Amin</t>
-  </si>
-  <si>
-    <t>আর তার ই সতীর্থ মাসি ২০১০ বিশ্বকাপে গোল বার খুঁজে পাইনি।</t>
-  </si>
-  <si>
-    <t>Md Abir Mahamud Islam</t>
-  </si>
-  <si>
-    <t>৫০% কল সব সময় বড় দলের পক্ষে যায় এটা ক্রিকেট কিংবা ফুটবল হোক আমরা সবাই দেখে আসছি এবং এটাই উচিৎ</t>
-  </si>
-  <si>
-    <t>Foyjur Rahman</t>
-  </si>
-  <si>
-    <t>পেনাল্টি দেওয়ার মত ফাউল ছিলো না</t>
-  </si>
-  <si>
-    <t>Abu Huraira</t>
-  </si>
-  <si>
-    <t>মুচি সাহেব যে পেনাল্টিটা পেয়েছিল সেটা কি ছিল??</t>
-  </si>
-  <si>
-    <t>Shobnom Shireen</t>
-  </si>
-  <si>
-    <t>Hey hero! Best of luck</t>
-  </si>
-  <si>
-    <t>মোঃ দেলোয়ার হোসাইন</t>
-  </si>
-  <si>
-    <t>একলোক ফজরের নামাজ পড়ে গেলো গোসল করতে,আরেক চোর সারারাত চুরি করে গেছে গোসল করতে, এখন চোর ভাবতেছে লোকটা মনে হয় আমার মত চুরি করেই গোসল করতে আসছে, আর ওইলোক ভাবতেছে লোকটা মনে হয় আমার ফজরের নামাজ পড়ে গোসল করতে আসছে, মোড়ল অব দ্যা স্টোরি, আলো সবসময় চুরি নিউজ করতে করতে সবজায়গাতে চুরি খুঁজে পায়।</t>
-  </si>
-  <si>
-    <t>Abdullah Al Luman</t>
-  </si>
-  <si>
-    <t>কাদো পায়েসখোর কাদো।</t>
-  </si>
-  <si>
-    <t>Mainul Islam Khan</t>
-  </si>
-  <si>
-    <t>তাহলে তো তার দেওয়া গোলটাও বৈধতা পায়! ওটা কিভাবে ফাউল হয়? 🤔</t>
-  </si>
-  <si>
-    <t>Rafat Bin Sadaf</t>
-  </si>
-  <si>
-    <t>আর্জেন্টিনা ও ব্রাজিল টিম নিয়ে অত্যাধিক ট্রল করে নিজেদের মধ্যে সম্পর্ক নষ্ট করে কোন লাভ নাই🙂। দিনশেষে আমরা বাংলাদেশী এটাই আমাদের পরিচয়🙂একটা জিনিস লক্ষনীয়, নেইমার  মেসি এক সাথে উঠা বসা করে অথচ কিছু অতি উৎসাহী মানুষ একে অন্যকে নোংরা ভাবে আক্রমণ করে, যা কখনোই উচিত নয় 😑 যেখানে আমাদের দেশ খেলছেই না! তাই একে অপরের প্রতি বন্ধুত্বপূর্ণ ও শালিন আচরণ করা উচিত 🥰</t>
-  </si>
-  <si>
-    <t>Rimteash Ahamed</t>
-  </si>
-  <si>
-    <t>Aj diveta sei chilo...refree wait korchilo dive tar jonno...</t>
-  </si>
-  <si>
-    <t>Raisul Abadin Saddam</t>
-  </si>
-  <si>
-    <t>100% true</t>
-  </si>
-  <si>
-    <t>Sirajus Salekin</t>
-  </si>
-  <si>
-    <t>খুব জ্বলতেছে বুঝি??</t>
-  </si>
-  <si>
-    <t>J Saha</t>
-  </si>
-  <si>
-    <t>Minimum 5x8=40 goals hobyi🥴🥴</t>
-  </si>
-  <si>
-    <t>Khaled Muhammad</t>
-  </si>
-  <si>
-    <t>৫ বিশ্বকাপ খেলে খুব ছিড়ে ফেলেছে।আরো ১৫ বিশ্বকাপ খেললেও কোন লাভ নেই।</t>
-  </si>
-  <si>
-    <t>Md. Kamrul Islam</t>
-  </si>
-  <si>
-    <t>এটার কারণে প্লেয়ার অফ দা ম্যাচও হয়েছে। হাস্যকর ব্যাপার!</t>
-  </si>
-  <si>
-    <t>Biplop Saha</t>
-  </si>
-  <si>
-    <t>কাল ভার ব্যবহার না করায় আমিও অবাক হয়েছি।তবে এটাও সত্যি যে মেসি রোনালদোর পক্ষেই যায় ৫০%কল।</t>
-  </si>
-  <si>
-    <t>Sentu Barua</t>
-  </si>
-  <si>
-    <t>পোলাপাইন মিছিল করতেছে... ব্রাজিল: মিশন হেক্সা জার্মানী: মিশন পেন্টাআর্জেন্টিনা: মিশন লেংটা 😂😂 🤣🤣🤣🥵🥵🥵🥵🥵</t>
-  </si>
-  <si>
-    <t>Tanjir Tarek</t>
-  </si>
-  <si>
-    <t>রোনালদোর ডিসএলাউড গোলটার পে ব্যাক ছিলো। 😉</t>
-  </si>
-  <si>
-    <t>MD Fuad Mokaddes</t>
-  </si>
-  <si>
-    <t>মোহাম্মদ একরামুল হক,🤣</t>
-  </si>
-  <si>
-    <t>Khademul Islam</t>
-  </si>
-  <si>
-    <t>সৌদির বিরুদ্ধে মেসির পেনাল্টি কি ধরণের উপহার?আর অতিরিক্ত ৮ মিনিটের খেলা কেমনে ১৪ মিনিট চালায়?</t>
-  </si>
-  <si>
-    <t>Opu Arshad</t>
-  </si>
-  <si>
-    <t>রোনাল্ডো পেনাল্টি পাওয়ায় সেটা উপহার। আর সৌদির বিপক্ষে মেসিরটা আজওয়া খেজুর।</t>
-  </si>
-  <si>
-    <t>মাহমুদ মৌসুম</t>
-  </si>
-  <si>
-    <t>জ্বলে..?.</t>
-  </si>
-  <si>
-    <t>Mohammad Sahalom</t>
-  </si>
-  <si>
-    <t>রোনালদোর প্রথম করা গোলটি তাহলে কেমনে ডিসএলাও হয়??  সাংঘাতিক সাহেব</t>
-  </si>
-  <si>
-    <t>Saiful Islam</t>
-  </si>
-  <si>
-    <t>তাও আবার রেফারি গিফট পেনাল্টিতে 🤣</t>
-  </si>
-  <si>
-    <t>হীরক জয়ন্তী</t>
-  </si>
-  <si>
-    <t>সৌদির বিরুদ্ধে মেসির পেনাল্টি কি ধরণের উপহার? কীসের পেনাল্টি পাইলো মেসি মনে হয় নিজেও জানতো না, আর অতিরিক্ত ৮ মিনিটের খেলা কেমনে ১৪ মিনিট চালায়? তালি দিয়া দিয়া আরজিতেনা কে বিশ্বকাপ দেয়ার প্ল্যান করছে ফিফা ।</t>
+[PHOTO] https://scontent.fmnl17-5.fna.fbcdn.net/v/t39.30808-6/218600914_2918069581776476_870324386865725681_n.jpg?stp=c185.0.403.403a_dst-jpg_p403x403&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=ac9ee4&amp;_nc_ohc=DoGrZm-a-GQAX9M70uL&amp;_nc_ht=scontent.fmnl17-5.fna&amp;oh=00_AfC0vpZ06enjzOxW0eDRf_53L6wUgmXbgM6SZDlitWgTZw&amp;oe=638BD186</t>
+  </si>
+  <si>
+    <t>Sarwar Murshid Ahmed</t>
+  </si>
+  <si>
+    <t>সত্য কখনো চাপা থাকে না।</t>
+  </si>
+  <si>
+    <t>Jibon Khaled</t>
+  </si>
+  <si>
+    <t>Nirob Rahaman Rokebul Islam Surjo</t>
+  </si>
+  <si>
+    <t>Jakaria Ripon</t>
+  </si>
+  <si>
+    <t>এইটা কি করে সম্ভব ! এই সমস্ত ফালতু গুজবে কান দিয়ে লাভ নেই। মিডিয়ার কাজে হচ্ছে জাতির মধ্যে বিভক্তি ছড়িয়ে দেওয়া। এরকম গুজব কাতার বিশ্বকাপ আয়োজন করতেও হয়েছিল, যেটা করা তাদের জন্য খুবই চ্যালেঞ্জিং ছিল। কিন্তু ভাগ্যিস সমালোচকদের ও নিন্দুকের মুখে চুনকালি দিয়ে বাস্তবে তারা প্রমাণ করে দেখালো। এই সমস্ত গুজব ও আজগুবি কথাবার্তায় কেউ বিভ্রান্ত না হওয়ার জন্য বিনীত অনুরোধ করছি।</t>
+  </si>
+  <si>
+    <t>Md Robeul Islam</t>
+  </si>
+  <si>
+    <t>R sangabtik ar bou Ra nana rokom polobon dakiya chuda dilo mofiz.🖕🖕</t>
+  </si>
+  <si>
+    <t>Dibakar Barmon</t>
+  </si>
+  <si>
+    <t>আর্জেন্টিনার মতো নোংরা মার্কা দল আর নাই!</t>
+  </si>
+  <si>
+    <t>Md Rawshon Ali</t>
+  </si>
+  <si>
+    <t>Nasim Hossain MD Asiqur Islam Asik ইতিহাসটা ভালো করে দেখে নিও</t>
+  </si>
+  <si>
+    <t>Sujan Monirkhan</t>
+  </si>
+  <si>
+    <t>আহত!!কি দারুণ ইতিহাস তাদের!!</t>
+  </si>
+  <si>
+    <t>মামুনুর রশিদ</t>
+  </si>
+  <si>
+    <t>Sohel Rana দেখ</t>
+  </si>
+  <si>
+    <t>M. A. K Dippto</t>
+  </si>
+  <si>
+    <t>এই দেশে চলমান তথাকথিত রাজনীতি খেলার মাঠে জামাইত্তা-শিবির গো পায়ুত্যাগের দুর্গন্ধ যেমন অ-নে-ক,,, অ-নে-ক বেশি তেমনি করে পৃথিবীতে ফুটবলের ক্ষেএে আর্জেন্টাইন ফুটবল বোর্ড সহ আর্জেন্টাইন খেলোয়ারদেরও দুর্গন্ধও বেশি মনে করে...!!!</t>
+  </si>
+  <si>
+    <t>MD Junaeid Al Habib</t>
+  </si>
+  <si>
+    <t>এক দল এসে বলবে সব মিথ্যা।</t>
+  </si>
+  <si>
+    <t>Arafat Mojumder</t>
+  </si>
+  <si>
+    <t>Naj Mul কখনো হাত দিয়ে, কখনো লোভ দেখিয়ে 🙏🙏</t>
+  </si>
+  <si>
+    <t>Amit Roy</t>
+  </si>
+  <si>
+    <t>বড়লোক - বড়লোক 🙄🙄</t>
+  </si>
+  <si>
+    <t>Omar Faruk</t>
+  </si>
+  <si>
+    <t>Power 😯🇦🇷💪💥</t>
+  </si>
+  <si>
+    <t>Shimul Kumar SK</t>
+  </si>
+  <si>
+    <t>আহারে! নান্দনিক দল এমন করতে পারে!🤣লজ্জা!</t>
+  </si>
+  <si>
+    <t>Miraj Hossain</t>
+  </si>
+  <si>
+    <t>এই গুলা দেখলেই প্রচুর হাসি পায় আমার 😁</t>
+  </si>
+  <si>
+    <t>Hey Mohammad Anis এসব কি ইতিহাস?</t>
+  </si>
+  <si>
+    <t>Mahmudul Hassan Emon</t>
+  </si>
+  <si>
+    <t>Mahamudul Hasan Tarek</t>
+  </si>
+  <si>
+    <t>Jafor Hussain Khan</t>
+  </si>
+  <si>
+    <t>প্,,, কিচ্চু খাওয়ার নাই,,, তর নিউজ দেখলে,,,,,,,,,,,,,,,,,,,,,</t>
+  </si>
+  <si>
+    <t>Amirul Islam Sohag</t>
+  </si>
+  <si>
+    <t>আর্জেন্টিনা আর বাংলাদেশের আওয়ামী লীগ একই দল দুটোই চোর।</t>
+  </si>
+  <si>
+    <t>Md Sajjadul Karim</t>
+  </si>
+  <si>
+    <t>ফিঁরোঁজঁ আঁসিঁবঁ</t>
+  </si>
+  <si>
+    <t>আফা দের এত ক্ষমতা🥴🐸</t>
+  </si>
+  <si>
+    <t>Rashed Uzzaman</t>
+  </si>
+  <si>
+    <t>Obhijog ki? Eta toh promanito. Argentina'r player ei nije media te shikar korse ei kotha. Tara toh shei aager thekei chor. Ekta jitse rajnoitik deal diye. Arekta jitse hath diye goal diye.</t>
+  </si>
+  <si>
+    <t>Mohammed Nazmul</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100064942290163/posts/532969752211097/</t>
+  </si>
+  <si>
+    <t>Adnan Abir</t>
+  </si>
+  <si>
+    <t>Nusrat Jahan Momo</t>
+  </si>
+  <si>
+    <t>মেহেদী হাসান মেহের</t>
+  </si>
+  <si>
+    <t>এসময় কি এসব নিউজ করে কেউ পাগল!!! আর্জেন্টিনা ভাইয়েরা ত প্রথম আলো পড়া বন্ধ করে দিবে।</t>
+  </si>
+  <si>
+    <t>Md Ibrahim</t>
+  </si>
+  <si>
+    <t>তাদের শৈল্পিক সৌন্দর্যের অন্ধকারে শুধুই কলঙ্ক।।</t>
+  </si>
+  <si>
+    <t>Mashiur Shohag</t>
+  </si>
+  <si>
+    <t>আার্জেন্টিনা চুরি না করলে একটি কাপও জিততে পারত না।</t>
+  </si>
+  <si>
+    <t>Msi Shahin</t>
+  </si>
+  <si>
+    <t>জন্ম থেকে চোর</t>
+  </si>
+  <si>
+    <t>Ahmed Limon</t>
+  </si>
+  <si>
+    <t>বাহ্ দারুণ খবর। 😁😁😁</t>
+  </si>
+  <si>
+    <t>Mashukur Rahman Talukdar</t>
+  </si>
+  <si>
+    <t>Ashaduzzaman Shihab দেখছো নি? 🤣</t>
+  </si>
+  <si>
+    <t>মুহাম্মদ ফরমান উল্লাহ সিকদার</t>
+  </si>
+  <si>
+    <t>ধুর হালার পু!</t>
+  </si>
+  <si>
+    <t>Malek Sha</t>
+  </si>
+  <si>
+    <t>ফুটবলে যত দুনম্বরী হয়েছে বা হয় সবগুলোতেই একটি বিশেষ দলের হাত থাকবেই।</t>
+  </si>
+  <si>
+    <t>Md. Rubel Hosen</t>
+  </si>
+  <si>
+    <t>কালকেও কিনমু তোগো কোন সমস্যা?</t>
+  </si>
+  <si>
+    <t>Riajul Zannat</t>
+  </si>
+  <si>
+    <t>Adiba Alam Zaki</t>
+  </si>
+  <si>
+    <t>Xr Anik</t>
+  </si>
+  <si>
+    <t>Minhajur Rahman</t>
+  </si>
+  <si>
+    <t>Naznin Akter</t>
+  </si>
+  <si>
+    <t>এই খবর দেখার পর এক দল মানুষ প্রথম  আলো বয়কট করবে😆😆</t>
+  </si>
+  <si>
+    <t>Shakil Islam</t>
+  </si>
+  <si>
+    <t>এটাই তাদের সুন্দর রুপের রহস্য 😁</t>
+  </si>
+  <si>
+    <t>Habibur Masud Jr.</t>
+  </si>
+  <si>
+    <t>Ñømãd Shãhïñ Md Masud Ahmed Søhêl Vãì Muhammad Golam Mostofa কি ইতিহাস?? 😜😜</t>
+  </si>
+  <si>
+    <t>Muhammad Faysal</t>
+  </si>
+  <si>
+    <t>আর্জেন্টিনার রক্ত ও ভক্ত দুটোই চোর বাটপার 😁😁</t>
+  </si>
+  <si>
+    <t>Shahin Hasan Bijoy</t>
+  </si>
+  <si>
+    <t>জি এই খবর বাংলাদেশের সম্ভব।  অন্য কোন দেশের সংবাদপত্রে এরকম কোন খবর নেই।। কেউ জানে না ব্রাজিলের আবাল সাপোর্টারাই জানে শুধু।</t>
+  </si>
+  <si>
+    <t>Shakawat Hossain</t>
+  </si>
+  <si>
+    <t>Abdur Rahim 🫣</t>
+  </si>
+  <si>
+    <t>Parves Hossain</t>
+  </si>
+  <si>
+    <t>চোরের দল,,বেপকা বেটা, ছেপাইকা ঘোড়া 😅</t>
+  </si>
+  <si>
+    <t>Sipon Dhar</t>
+  </si>
+  <si>
+    <t>এখানে চিল্লা চিল্লি করে লাভ কি🤔ও তো সত্যি কথা বলছে🤗🤗</t>
+  </si>
+  <si>
+    <t>Animesh Das</t>
+  </si>
+  <si>
+    <t>জার্মানিকে এই শীতে গ্যাসের প্রলোভন দেখালে ম্যাচটা ছেড়েও দিতে পারে😂</t>
+  </si>
+  <si>
+    <t>Mobin Talukder</t>
+  </si>
+  <si>
+    <t>গোবর একটি অদ্ভুদ জিনিস রে ভাই।পানিতে গেলে হয় মাছের খাদ্যচুলায় গেলে হয় জ্বালানি,জমিতে গেলে হয় জৈবসার,ইন্ডিয়া গেলে হয় প্রসাদআর  মস্তিষ্কে গেলে হয়  এই সাংবাদিক।</t>
   </si>
   <si>
     <t>Label</t>
@@ -641,30 +969,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -672,10 +998,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -683,37 +1009,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -724,7 +1047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -732,32 +1055,26 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -768,7 +1085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -776,10 +1093,10 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -787,32 +1104,26 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -823,34 +1134,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -861,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -872,18 +1186,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -891,7 +1202,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -899,10 +1210,10 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -913,7 +1224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -921,48 +1232,48 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>51</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
       <c r="B28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
       <c r="B29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>57</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -970,7 +1281,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -981,18 +1292,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>63</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1000,10 +1308,10 @@
         <v>66</v>
       </c>
       <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -1014,7 +1322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -1025,15 +1333,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>71</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -1041,21 +1352,18 @@
         <v>74</v>
       </c>
       <c r="C38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>75</v>
       </c>
       <c r="B39" t="s">
         <v>76</v>
       </c>
-      <c r="C39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -1063,10 +1371,10 @@
         <v>78</v>
       </c>
       <c r="C40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -1074,10 +1382,10 @@
         <v>80</v>
       </c>
       <c r="C41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -1085,10 +1393,10 @@
         <v>82</v>
       </c>
       <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -1096,6 +1404,582 @@
         <v>84</v>
       </c>
       <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>178</v>
+      </c>
+      <c r="B93" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" t="s">
+        <v>187</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>188</v>
+      </c>
+      <c r="B98" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99" t="s">
+        <v>191</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>192</v>
+      </c>
+      <c r="B100" t="s">
+        <v>193</v>
+      </c>
+      <c r="C100">
         <v>3</v>
       </c>
     </row>
@@ -1144,6 +2028,63 @@
     <hyperlink ref="A41" r:id="rId40" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="A42" r:id="rId41" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
     <hyperlink ref="A43" r:id="rId42" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A44" r:id="rId43" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A45" r:id="rId44" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A46" r:id="rId45" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A47" r:id="rId46" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A48" r:id="rId47" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A49" r:id="rId48" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A50" r:id="rId49" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A51" r:id="rId50" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A52" r:id="rId51" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A53" r:id="rId52" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A54" r:id="rId53" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A55" r:id="rId54" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A56" r:id="rId55" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A57" r:id="rId56" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A58" r:id="rId57" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A59" r:id="rId58" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="A60" r:id="rId59" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="A61" r:id="rId60" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="A62" r:id="rId61" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="A63" r:id="rId62" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="A64" r:id="rId63" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="A65" r:id="rId64" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="A66" r:id="rId65" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="A67" r:id="rId66" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="A68" r:id="rId67" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="A69" r:id="rId68" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="A70" r:id="rId69" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="A71" r:id="rId70" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="A72" r:id="rId71" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="A73" r:id="rId72" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="A74" r:id="rId73" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="A75" r:id="rId74" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="A76" r:id="rId75" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="A77" r:id="rId76" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="A78" r:id="rId77" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="A79" r:id="rId78" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="A80" r:id="rId79" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="A81" r:id="rId80" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="A82" r:id="rId81" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="A83" r:id="rId82" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="A84" r:id="rId83" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="A85" r:id="rId84" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="A86" r:id="rId85" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="A87" r:id="rId86" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="A88" r:id="rId87" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="A89" r:id="rId88" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="A90" r:id="rId89" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="A91" r:id="rId90" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="A92" r:id="rId91" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="A93" r:id="rId92" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="A94" r:id="rId93" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="A95" r:id="rId94" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="A96" r:id="rId95" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="A97" r:id="rId96" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="A98" r:id="rId97" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="A99" r:id="rId98" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="A100" r:id="rId99" tooltip="Click to view profile" display="Click to view profile" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
